--- a/基础参数表-至20171122.xlsx
+++ b/基础参数表-至20171122.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22840" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="测试环境（通用）" sheetId="1" r:id="rId1"/>
     <sheet name="测试环境（网管）" sheetId="2" r:id="rId2"/>
     <sheet name="客户环境" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <calcPr calcId="150001" calcMode="manual" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -808,10 +819,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>workflow、um</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>orcl5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1845,14 +1852,18 @@
   </si>
   <si>
     <t>核算系统端口（JAVA）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow、um、core</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,64 +1952,64 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2006,24 +2017,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2031,7 +2042,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2040,11 +2051,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2165,6 +2176,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2173,12 +2190,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2473,43 +2484,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16:N16"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="11.625" style="29" customWidth="1"/>
-    <col min="13" max="14" width="22.625" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" style="29" customWidth="1"/>
+    <col min="13" max="14" width="22.6640625" style="29" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="26" t="s">
         <v>27</v>
       </c>
@@ -2547,11 +2558,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="36">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="18"/>
@@ -2563,14 +2574,14 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -2597,8 +2608,8 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
@@ -2623,8 +2634,8 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42"/>
       <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2647,8 +2658,8 @@
       <c r="M5" s="28"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42"/>
       <c r="B6" s="23" t="s">
         <v>52</v>
       </c>
@@ -2671,8 +2682,8 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
       <c r="B7" s="23" t="s">
         <v>184</v>
       </c>
@@ -2691,8 +2702,8 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
       <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
@@ -2709,30 +2720,30 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
@@ -2765,48 +2776,48 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
       <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="40">
         <v>2</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="42"/>
       <c r="B12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -2841,8 +2852,8 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42"/>
       <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
@@ -2875,8 +2886,8 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42"/>
       <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
@@ -2909,8 +2920,8 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2940,71 +2951,71 @@
       <c r="J16" s="18">
         <v>201</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39" t="s">
+      <c r="J17" s="40"/>
+      <c r="K17" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="41"/>
+      <c r="M17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="N17" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1">
-      <c r="A18" s="40"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
       <c r="B19" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>176</v>
@@ -3033,14 +3044,14 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="10" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="66.75" customHeight="1">
-      <c r="A20" s="40"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="70" x14ac:dyDescent="0.15">
+      <c r="A20" s="42"/>
       <c r="B20" s="23" t="s">
         <v>18</v>
       </c>
@@ -3071,119 +3082,119 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42"/>
+      <c r="B21" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="N20" s="30" t="s">
+      <c r="N21" s="30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="C22" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="42"/>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42"/>
       <c r="B24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="38" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="17" t="s">
         <v>96</v>
       </c>
@@ -3191,210 +3202,210 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1">
-      <c r="A25" s="40"/>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="42"/>
       <c r="B25" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N25" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1">
-      <c r="A26" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42"/>
       <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="C26" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="42"/>
       <c r="B27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="40">
         <v>100</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="42"/>
       <c r="B28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="C28" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="42"/>
       <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="C29" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="42"/>
       <c r="B30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="42"/>
       <c r="B31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="40">
         <v>1521</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="42"/>
       <c r="B32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="38" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38" t="s">
+      <c r="H32" s="41"/>
+      <c r="I32" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39" t="s">
+      <c r="J32" s="40"/>
+      <c r="K32" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="L32" s="39"/>
-      <c r="M32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1">
-      <c r="A33" s="40"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="42"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-    </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1">
-      <c r="A34" s="40" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -3413,8 +3424,8 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42"/>
       <c r="B35" s="23" t="s">
         <v>41</v>
       </c>
@@ -3431,8 +3442,8 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="42"/>
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
@@ -3449,8 +3460,8 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -3469,8 +3480,8 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1">
-      <c r="A38" s="40"/>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="42"/>
       <c r="B38" s="23" t="s">
         <v>57</v>
       </c>
@@ -3487,8 +3498,8 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1">
-      <c r="A39" s="40"/>
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="42"/>
       <c r="B39" s="23" t="s">
         <v>58</v>
       </c>
@@ -3505,7 +3516,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3534,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="25" t="s">
         <v>55</v>
       </c>
@@ -3541,8 +3552,8 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -3561,8 +3572,8 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1">
-      <c r="A43" s="40"/>
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="42"/>
       <c r="B43" s="23" t="s">
         <v>60</v>
       </c>
@@ -3579,8 +3590,8 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1">
-      <c r="A44" s="40"/>
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="42"/>
       <c r="B44" s="23" t="s">
         <v>61</v>
       </c>
@@ -3597,8 +3608,8 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1">
-      <c r="A45" s="40"/>
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="42"/>
       <c r="B45" s="23" t="s">
         <v>62</v>
       </c>
@@ -3617,17 +3628,23 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="C22:N22"/>
     <mergeCell ref="C23:N23"/>
     <mergeCell ref="C26:N26"/>
@@ -3644,23 +3661,17 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3668,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3678,17 +3689,17 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="22.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="22.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="19.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>79</v>
       </c>
@@ -3712,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -3738,7 +3749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="24">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>88</v>
       </c>
@@ -3756,7 +3767,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="24">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
@@ -3772,7 +3783,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>102</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>101</v>
       </c>
@@ -3816,7 +3827,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>103</v>
       </c>
@@ -3836,7 +3847,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -3856,7 +3867,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -3876,15 +3887,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="6" t="s">
         <v>136</v>
       </c>
@@ -3892,7 +3903,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>108</v>
       </c>
@@ -3912,7 +3923,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>109</v>
       </c>
@@ -3932,7 +3943,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>110</v>
       </c>
@@ -3952,7 +3963,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>111</v>
       </c>
@@ -3972,7 +3983,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
@@ -3992,7 +4003,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>113</v>
       </c>
@@ -4012,7 +4023,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1">
+    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
@@ -4032,7 +4043,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>67</v>
       </c>
@@ -4052,23 +4063,23 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>137</v>
       </c>
@@ -4088,53 +4099,53 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>5</v>
       </c>
@@ -4150,7 +4161,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1">
+    <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>123</v>
       </c>
@@ -4170,7 +4181,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -4188,7 +4199,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4206,7 +4217,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>0</v>
       </c>
@@ -4224,34 +4235,34 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4260,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4270,277 +4281,277 @@
       <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="37" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="37" customWidth="1"/>
-    <col min="7" max="10" width="16.75" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="37" customWidth="1"/>
+    <col min="7" max="10" width="16.6640625" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="B2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>237</v>
-      </c>
       <c r="I2" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
       <c r="B3" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>237</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
       <c r="B4" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="B5" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>249</v>
-      </c>
       <c r="I5" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
       <c r="B6" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="I6" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="B7" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="F9" s="13">
         <v>123456</v>
@@ -4549,361 +4560,361 @@
         <v>123456</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
       <c r="B11" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>286</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>292</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>294</v>
-      </c>
       <c r="D18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
       <c r="B22" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="13">
         <v>80</v>
@@ -4924,54 +4935,54 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48"/>
       <c r="B24" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="13" t="b">
         <v>1</v>
@@ -4990,98 +5001,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1">
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>323</v>
-      </c>
       <c r="D27" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="48"/>
       <c r="B28" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="48"/>
       <c r="B30" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="13">
         <v>8089</v>
@@ -5102,54 +5113,54 @@
         <v>8081</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
       <c r="B32" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
       <c r="B33" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C33" s="13" t="b">
         <v>1</v>
@@ -5168,147 +5179,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1">
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
       <c r="B34" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
       <c r="B35" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="C37" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="48"/>
       <c r="B38" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>352</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="48"/>
       <c r="B39" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="F39" s="13">
         <v>123456</v>
@@ -5317,417 +5328,417 @@
         <v>123456</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I39" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="48"/>
       <c r="B40" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="48"/>
       <c r="B41" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="48"/>
       <c r="B42" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="H42" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="48"/>
       <c r="B43" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>377</v>
-      </c>
       <c r="I43" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="B44" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="47" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1">
-      <c r="A45" s="47" t="s">
+      <c r="B45" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="C45" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>387</v>
-      </c>
       <c r="D45" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="48"/>
       <c r="B46" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="18" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="48"/>
       <c r="B47" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="F47" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="48"/>
       <c r="B48" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>395</v>
-      </c>
       <c r="D48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="18" customHeight="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="48"/>
       <c r="B49" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>397</v>
-      </c>
       <c r="D49" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18" customHeight="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="48"/>
       <c r="B50" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H50" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>400</v>
-      </c>
       <c r="J50" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="18" customHeight="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="48"/>
       <c r="B51" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H51" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>404</v>
-      </c>
       <c r="J51" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="18" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="48"/>
       <c r="B52" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>407</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>408</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H52" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>408</v>
-      </c>
       <c r="J52" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="18" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="48"/>
       <c r="B53" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="I53" s="13" t="s">
+      <c r="J53" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="48"/>
       <c r="B54" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5737,181 +5748,181 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18" customHeight="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="B55" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>419</v>
-      </c>
       <c r="D55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="18" customHeight="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="48"/>
       <c r="B56" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>421</v>
-      </c>
       <c r="D56" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H56" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="I56" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="I56" s="23" t="s">
-        <v>422</v>
-      </c>
       <c r="J56" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="18" customHeight="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="48"/>
       <c r="B57" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>424</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>425</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="G57" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>427</v>
-      </c>
       <c r="I57" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="18" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="48"/>
       <c r="B58" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="D58" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="18" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="48"/>
       <c r="B59" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="D59" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="18" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="48"/>
       <c r="B60" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>433</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="18" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="48"/>
       <c r="B61" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C61" s="13">
         <v>1521</v>
@@ -5936,136 +5947,136 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18" customHeight="1">
+    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="48"/>
       <c r="B62" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>438</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="18" customHeight="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="49"/>
       <c r="B63" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>433</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="18" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="C64" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>443</v>
-      </c>
       <c r="D64" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48"/>
       <c r="B65" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>445</v>
-      </c>
       <c r="D65" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="18" customHeight="1">
+    </row>
+    <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48"/>
       <c r="B66" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>449</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>450</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:10" ht="18" customHeight="1">
+    <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48"/>
       <c r="B67" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C67" s="13">
         <v>1</v>
@@ -6084,10 +6095,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18" customHeight="1">
+    <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="49"/>
       <c r="B68" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C68" s="13">
         <v>123456</v>
@@ -6100,12 +6111,12 @@
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:10" ht="18" customHeight="1">
+    <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>454</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>455</v>
       </c>
       <c r="C69" s="13">
         <v>80</v>
@@ -6120,16 +6131,16 @@
         <v>80</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J69" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18" customHeight="1">
+    <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="45"/>
       <c r="B70" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" s="13">
         <v>8089</v>
@@ -6144,46 +6155,46 @@
         <v>8081</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J70" s="13">
         <v>8081</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1">
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="45"/>
       <c r="B71" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C71" s="13">
         <v>8090</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J71" s="13">
         <v>8090</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1">
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="45"/>
       <c r="B72" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C72" s="13">
         <v>8586</v>
@@ -6196,16 +6207,16 @@
         <v>8586</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="45"/>
       <c r="B73" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -6216,16 +6227,16 @@
         <v>3389</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="18" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="45"/>
       <c r="B74" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C74" s="13">
         <v>20001</v>
@@ -6240,10 +6251,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18" customHeight="1">
+    <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="45"/>
       <c r="B75" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C75" s="13">
         <v>1521</v>
@@ -6264,16 +6275,16 @@
         <v>1521</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J75" s="13">
         <v>1521</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18" customHeight="1">
+    <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="46"/>
       <c r="B76" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C76" s="13">
         <v>1521</v>

--- a/基础参数表-至20171122.xlsx
+++ b/基础参数表-至20171122.xlsx
@@ -1,29 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22840" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试环境（通用）" sheetId="1" r:id="rId1"/>
     <sheet name="测试环境（网管）" sheetId="2" r:id="rId2"/>
     <sheet name="客户环境" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" calcMode="manual" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
+  <calcPr calcId="125725" calcMode="manual"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -32,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="471">
   <si>
     <t>ORACLE软件位置</t>
   </si>
@@ -819,6 +809,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>workflow、um</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>orcl5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1855,15 +1849,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>workflow、um、core</t>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> export ORACLE_SID=lckdisp2</t>
+  </si>
+  <si>
+    <t>rlwrap sqlplus /nolog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conn sys/shine as sysdba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup/shutdown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsnrctl start/stop/status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1952,64 +1966,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2017,24 +2031,24 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2042,7 +2056,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2051,11 +2065,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2484,39 +2498,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" style="29" customWidth="1"/>
-    <col min="13" max="14" width="22.6640625" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="12.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="11.625" style="29" customWidth="1"/>
+    <col min="13" max="14" width="22.625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="36">
       <c r="A2" s="40" t="s">
         <v>85</v>
       </c>
@@ -2574,13 +2589,13 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="42" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +2623,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="42"/>
       <c r="B4" s="23" t="s">
         <v>51</v>
@@ -2634,7 +2649,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23" t="s">
         <v>50</v>
@@ -2658,7 +2673,7 @@
       <c r="M5" s="28"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23" t="s">
         <v>52</v>
@@ -2682,7 +2697,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23" t="s">
         <v>184</v>
@@ -2702,7 +2717,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="23" t="s">
         <v>53</v>
@@ -2720,7 +2735,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
@@ -2742,7 +2757,7 @@
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
         <v>22</v>
@@ -2776,7 +2791,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="42"/>
       <c r="B11" s="23" t="s">
         <v>21</v>
@@ -2796,7 +2811,7 @@
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="42"/>
       <c r="B12" s="23" t="s">
         <v>43</v>
@@ -2816,7 +2831,7 @@
       <c r="M12" s="40"/>
       <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>47</v>
       </c>
@@ -2852,7 +2867,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="23" t="s">
         <v>38</v>
@@ -2886,7 +2901,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="23" t="s">
         <v>39</v>
@@ -2920,7 +2935,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="42" t="s">
         <v>63</v>
       </c>
@@ -2960,7 +2975,7 @@
       </c>
       <c r="N16" s="39"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>20</v>
@@ -2982,17 +2997,17 @@
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" s="41"/>
       <c r="M17" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>19</v>
@@ -3012,10 +3027,10 @@
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>176</v>
@@ -3044,13 +3059,13 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="10" t="s">
-        <v>464</v>
+        <v>203</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="70" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="66.75" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="23" t="s">
         <v>18</v>
@@ -3082,61 +3097,61 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25.5" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -3150,7 +3165,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="23" t="s">
         <v>16</v>
@@ -3170,7 +3185,7 @@
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="23" t="s">
         <v>44</v>
@@ -3201,8 +3216,11 @@
       <c r="N24" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O24" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="23" t="s">
         <v>86</v>
@@ -3226,19 +3244,19 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -3252,7 +3270,7 @@
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="23" t="s">
         <v>64</v>
@@ -3272,13 +3290,13 @@
       <c r="M27" s="40"/>
       <c r="N27" s="40"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -3292,13 +3310,13 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -3312,13 +3330,13 @@
       <c r="M29" s="40"/>
       <c r="N29" s="40"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -3332,7 +3350,7 @@
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="23" t="s">
         <v>12</v>
@@ -3352,7 +3370,7 @@
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="23" t="s">
         <v>11</v>
@@ -3374,17 +3392,17 @@
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
@@ -3404,7 +3422,7 @@
       <c r="M33" s="40"/>
       <c r="N33" s="40"/>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="18" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>46</v>
       </c>
@@ -3424,7 +3442,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="18" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="23" t="s">
         <v>41</v>
@@ -3442,7 +3460,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="18" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="23" t="s">
         <v>42</v>
@@ -3460,7 +3478,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="18" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>45</v>
       </c>
@@ -3480,7 +3498,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="18" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="23" t="s">
         <v>57</v>
@@ -3498,7 +3516,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="18" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="23" t="s">
         <v>58</v>
@@ -3516,7 +3534,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="18" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>54</v>
       </c>
@@ -3534,7 +3552,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="18" customHeight="1">
       <c r="A41" s="25" t="s">
         <v>55</v>
       </c>
@@ -3552,7 +3570,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="18" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>65</v>
       </c>
@@ -3572,7 +3590,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="18" customHeight="1">
       <c r="A43" s="42"/>
       <c r="B43" s="23" t="s">
         <v>60</v>
@@ -3590,7 +3608,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="18" customHeight="1">
       <c r="A44" s="42"/>
       <c r="B44" s="23" t="s">
         <v>61</v>
@@ -3608,7 +3626,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="18" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="23" t="s">
         <v>62</v>
@@ -3679,27 +3697,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="22.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="22.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="19.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>79</v>
       </c>
@@ -3723,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -3749,7 +3767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="24">
       <c r="A3" s="15" t="s">
         <v>88</v>
       </c>
@@ -3767,7 +3785,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="24">
       <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
@@ -3783,7 +3801,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>102</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>101</v>
       </c>
@@ -3827,7 +3845,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>103</v>
       </c>
@@ -3847,7 +3865,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -3867,7 +3885,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +3905,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +3921,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>108</v>
       </c>
@@ -3923,7 +3941,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>109</v>
       </c>
@@ -3943,7 +3961,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>110</v>
       </c>
@@ -3963,7 +3981,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>111</v>
       </c>
@@ -3983,7 +4001,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
@@ -4003,7 +4021,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>113</v>
       </c>
@@ -4023,7 +4041,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="39" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
@@ -4043,7 +4061,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>67</v>
       </c>
@@ -4063,7 +4081,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
@@ -4079,7 +4097,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>137</v>
       </c>
@@ -4099,7 +4117,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4131,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
@@ -4129,7 +4147,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
@@ -4145,7 +4163,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>5</v>
       </c>
@@ -4161,7 +4179,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>123</v>
       </c>
@@ -4181,7 +4199,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4217,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +4235,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4253,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>150</v>
       </c>
@@ -4271,7 +4289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4281,277 +4299,277 @@
       <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="37" customWidth="1"/>
-    <col min="7" max="10" width="16.6640625" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="37" customWidth="1"/>
+    <col min="7" max="10" width="16.75" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="32" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>235</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="48"/>
       <c r="B3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>235</v>
-      </c>
       <c r="J3" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>239</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>235</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" s="13">
         <v>123456</v>
@@ -4560,361 +4578,361 @@
         <v>123456</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="48"/>
       <c r="B10" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>281</v>
-      </c>
       <c r="J13" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="49"/>
       <c r="B20" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" s="13">
         <v>80</v>
@@ -4935,54 +4953,54 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C25" s="13" t="b">
         <v>1</v>
@@ -5001,98 +5019,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" s="13">
         <v>8089</v>
@@ -5113,54 +5131,54 @@
         <v>8081</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="18" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" s="13" t="b">
         <v>1</v>
@@ -5179,147 +5197,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="48"/>
       <c r="B34" s="33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1">
       <c r="A35" s="48"/>
       <c r="B35" s="33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1">
       <c r="A37" s="47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1">
       <c r="A38" s="48"/>
       <c r="B38" s="33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1">
       <c r="A39" s="48"/>
       <c r="B39" s="33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F39" s="13">
         <v>123456</v>
@@ -5328,417 +5346,417 @@
         <v>123456</v>
       </c>
       <c r="H39" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>355</v>
-      </c>
       <c r="J39" s="13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1">
       <c r="A40" s="48"/>
       <c r="B40" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1">
       <c r="A41" s="48"/>
       <c r="B41" s="33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="48"/>
       <c r="B42" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
       <c r="A43" s="48"/>
       <c r="B43" s="33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H43" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>375</v>
-      </c>
       <c r="J43" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1">
       <c r="A44" s="49"/>
       <c r="B44" s="33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1">
       <c r="A45" s="47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="48"/>
       <c r="B46" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>386</v>
-      </c>
       <c r="D46" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>389</v>
-      </c>
       <c r="J47" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="48"/>
       <c r="B50" s="33" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="J50" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1">
       <c r="A51" s="48"/>
       <c r="B51" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="J51" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1">
       <c r="A52" s="48"/>
       <c r="B52" s="33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="J52" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="48"/>
       <c r="B53" s="33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="48"/>
       <c r="B54" s="33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -5748,181 +5766,181 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1">
       <c r="A55" s="48"/>
       <c r="B55" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1">
       <c r="A56" s="48"/>
       <c r="B56" s="33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="G56" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>420</v>
-      </c>
       <c r="I56" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="48"/>
       <c r="B57" s="33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H57" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="I57" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="I57" s="23" t="s">
-        <v>425</v>
-      </c>
       <c r="J57" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="48"/>
       <c r="B58" s="33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1">
       <c r="A59" s="48"/>
       <c r="B59" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18" customHeight="1">
       <c r="A60" s="48"/>
       <c r="B60" s="33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="48"/>
       <c r="B61" s="33" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" s="13">
         <v>1521</v>
@@ -5947,136 +5965,136 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="48"/>
       <c r="B62" s="33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1">
       <c r="A63" s="49"/>
       <c r="B63" s="33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18" customHeight="1">
       <c r="A64" s="47" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="48"/>
       <c r="B65" s="33" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="48"/>
       <c r="B66" s="33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="18" customHeight="1">
       <c r="A67" s="48"/>
       <c r="B67" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C67" s="13">
         <v>1</v>
@@ -6095,10 +6113,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="18" customHeight="1">
       <c r="A68" s="49"/>
       <c r="B68" s="33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C68" s="13">
         <v>123456</v>
@@ -6111,12 +6129,12 @@
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="18" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C69" s="13">
         <v>80</v>
@@ -6131,16 +6149,16 @@
         <v>80</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J69" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="18" customHeight="1">
       <c r="A70" s="45"/>
       <c r="B70" s="33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C70" s="13">
         <v>8089</v>
@@ -6155,46 +6173,46 @@
         <v>8081</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J70" s="13">
         <v>8081</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="18" customHeight="1">
       <c r="A71" s="45"/>
       <c r="B71" s="33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C71" s="13">
         <v>8090</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J71" s="13">
         <v>8090</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="18" customHeight="1">
       <c r="A72" s="45"/>
       <c r="B72" s="33" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C72" s="13">
         <v>8586</v>
@@ -6207,16 +6225,16 @@
         <v>8586</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1">
       <c r="A73" s="45"/>
       <c r="B73" s="33" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -6227,16 +6245,16 @@
         <v>3389</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18" customHeight="1">
       <c r="A74" s="45"/>
       <c r="B74" s="33" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C74" s="13">
         <v>20001</v>
@@ -6251,10 +6269,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="18" customHeight="1">
       <c r="A75" s="45"/>
       <c r="B75" s="33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C75" s="13">
         <v>1521</v>
@@ -6275,16 +6293,16 @@
         <v>1521</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J75" s="13">
         <v>1521</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="18" customHeight="1">
       <c r="A76" s="46"/>
       <c r="B76" s="33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C76" s="13">
         <v>1521</v>
@@ -6313,4 +6331,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>